--- a/Excel/Membership.xlsx
+++ b/Excel/Membership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cool Yeah\Semester 3\SBD\FP_SBD\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC54F76-1904-4976-A2B5-B85C409890CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580C0B43-0333-4FE7-8406-FEF765366E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="3105" windowWidth="14610" windowHeight="16305" xr2:uid="{04A35BFA-92FA-4304-8F70-83EA92E992B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{04A35BFA-92FA-4304-8F70-83EA92E992B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Nama</t>
   </si>
@@ -198,16 +198,79 @@
   </si>
   <si>
     <t>Jalan Cut Nyak Dien no 1</t>
+  </si>
+  <si>
+    <t>MB001</t>
+  </si>
+  <si>
+    <t>MB002</t>
+  </si>
+  <si>
+    <t>MB003</t>
+  </si>
+  <si>
+    <t>MB004</t>
+  </si>
+  <si>
+    <t>MB005</t>
+  </si>
+  <si>
+    <t>MB006</t>
+  </si>
+  <si>
+    <t>MB007</t>
+  </si>
+  <si>
+    <t>MB008</t>
+  </si>
+  <si>
+    <t>MB009</t>
+  </si>
+  <si>
+    <t>MB010</t>
+  </si>
+  <si>
+    <t>MB011</t>
+  </si>
+  <si>
+    <t>MB012</t>
+  </si>
+  <si>
+    <t>MB013</t>
+  </si>
+  <si>
+    <t>MB014</t>
+  </si>
+  <si>
+    <t>MB015</t>
+  </si>
+  <si>
+    <t>MB016</t>
+  </si>
+  <si>
+    <t>MB017</t>
+  </si>
+  <si>
+    <t>087264827126</t>
+  </si>
+  <si>
+    <t>08264723822</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,7 +616,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,8 +641,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -595,8 +658,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -612,8 +675,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -629,8 +692,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -646,8 +709,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -663,8 +726,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -680,8 +743,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -697,8 +760,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -714,8 +777,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -731,8 +794,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -748,8 +811,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -765,8 +828,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -782,8 +845,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -799,8 +862,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -816,8 +879,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -832,12 +895,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>8264723822</v>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
@@ -846,12 +912,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
-        <v>87264827126</v>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -866,6 +935,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
